--- a/module3/CaseStudy-Database/CG-DN Case Study for Database_v1.2_Answer_and_Data.xlsx
+++ b/module3/CaseStudy-Database/CG-DN Case Study for Database_v1.2_Answer_and_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tranning\document\classes\Day\2023\C0323G1\TaiLieuTrienKhaiModule3\CaseStudy-Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeGym\A0623I1\module3\CaseStudy-Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14DB332-70E8-4312-92AA-3620696E88D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3585086-703C-4E3C-A5C9-391F58034012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="986" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="986" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="3" state="hidden" r:id="rId1"/>
@@ -32,6 +32,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1514,21 +1525,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" s="4" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>template</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1536,27 +1547,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
@@ -1572,21 +1583,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
     <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" s="4" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>loai_dich_vu</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>116</v>
       </c>
@@ -1595,7 +1606,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1604,7 +1615,7 @@
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1613,7 +1624,7 @@
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1636,30 +1647,30 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" s="4" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>dich_vu</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>121</v>
       </c>
@@ -1695,7 +1706,7 @@
       </c>
       <c r="N4"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1731,7 +1742,7 @@
       </c>
       <c r="N5"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1767,7 +1778,7 @@
       </c>
       <c r="N6"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1803,7 +1814,7 @@
       </c>
       <c r="N7"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1839,7 +1850,7 @@
       </c>
       <c r="N8"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1875,7 +1886,7 @@
       </c>
       <c r="N9"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1926,24 +1937,24 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="24.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" s="4" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>dich_vu_di_kem</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>157</v>
       </c>
@@ -1961,7 +1972,7 @@
       </c>
       <c r="H4"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1979,7 +1990,7 @@
       </c>
       <c r="H5"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1997,7 +2008,7 @@
       </c>
       <c r="H6"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -2015,7 +2026,7 @@
       </c>
       <c r="H7"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -2033,7 +2044,7 @@
       </c>
       <c r="H8"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2051,7 +2062,7 @@
       </c>
       <c r="H9"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -2081,26 +2092,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" s="4" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>hop_dong</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>178</v>
       </c>
@@ -2124,7 +2135,7 @@
       </c>
       <c r="J4"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2148,7 +2159,7 @@
       </c>
       <c r="J5"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2172,7 +2183,7 @@
       </c>
       <c r="J6"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -2196,7 +2207,7 @@
       </c>
       <c r="J7"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -2220,7 +2231,7 @@
       </c>
       <c r="J8"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2244,7 +2255,7 @@
       </c>
       <c r="J9"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -2268,7 +2279,7 @@
       </c>
       <c r="J10"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
@@ -2292,7 +2303,7 @@
       </c>
       <c r="J11"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>53</v>
       </c>
@@ -2316,7 +2327,7 @@
       </c>
       <c r="J12"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>156</v>
       </c>
@@ -2340,7 +2351,7 @@
       </c>
       <c r="J13"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
         <v>136</v>
       </c>
@@ -2364,7 +2375,7 @@
       </c>
       <c r="J14"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
         <v>277</v>
       </c>
@@ -2388,7 +2399,7 @@
       </c>
       <c r="J15"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
         <v>306</v>
       </c>
@@ -2422,25 +2433,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B2:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:E12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="22.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" s="4" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>hop_dong_chi_tiet</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>191</v>
       </c>
@@ -2455,7 +2468,7 @@
       </c>
       <c r="G4"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2470,7 +2483,7 @@
       </c>
       <c r="G5"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2485,7 +2498,7 @@
       </c>
       <c r="G6"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -2500,7 +2513,7 @@
       </c>
       <c r="G7"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -2515,7 +2528,7 @@
       </c>
       <c r="G8"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2530,7 +2543,7 @@
       </c>
       <c r="G9"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -2545,7 +2558,7 @@
       </c>
       <c r="G10"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
@@ -2560,7 +2573,7 @@
       </c>
       <c r="G11"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>53</v>
       </c>
@@ -2588,30 +2601,30 @@
   </sheetPr>
   <dimension ref="B2:I197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="20.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.26953125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" s="11" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B2" s="10" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>18</v>
       </c>
@@ -2622,7 +2635,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2633,7 +2646,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>156</v>
       </c>
@@ -2644,12 +2657,12 @@
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="2:4" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" s="11" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B9" s="10" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="s">
         <v>236</v>
       </c>
@@ -2660,7 +2673,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
@@ -2671,7 +2684,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
@@ -2682,7 +2695,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
         <v>136</v>
       </c>
@@ -2693,12 +2706,12 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="2:9" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" s="11" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B17" s="10" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" s="7" t="s">
         <v>236</v>
       </c>
@@ -2709,7 +2722,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" s="2" t="s">
         <v>52</v>
       </c>
@@ -2720,7 +2733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
@@ -2731,7 +2744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
         <v>5</v>
       </c>
@@ -2742,12 +2755,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:9" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" s="11" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B25" s="10" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B27" s="7" t="s">
         <v>236</v>
       </c>
@@ -2773,7 +2786,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B28" s="2" t="s">
         <v>2</v>
       </c>
@@ -2799,7 +2812,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
@@ -2825,7 +2838,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B30" s="2" t="s">
         <v>3</v>
       </c>
@@ -2851,7 +2864,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B31" s="2" t="s">
         <v>4</v>
       </c>
@@ -2877,7 +2890,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B32" s="2" t="s">
         <v>4</v>
       </c>
@@ -2903,7 +2916,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
@@ -2929,7 +2942,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B34" s="2" t="s">
         <v>5</v>
       </c>
@@ -2955,7 +2968,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B35" s="2" t="s">
         <v>5</v>
       </c>
@@ -2981,7 +2994,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
@@ -3007,7 +3020,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B37" s="2" t="s">
         <v>6</v>
       </c>
@@ -3033,7 +3046,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B38" s="2" t="s">
         <v>7</v>
       </c>
@@ -3051,7 +3064,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B39" s="2" t="s">
         <v>52</v>
       </c>
@@ -3077,7 +3090,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B40" s="2" t="s">
         <v>136</v>
       </c>
@@ -3103,12 +3116,12 @@
         <v>328</v>
       </c>
     </row>
-    <row r="43" spans="2:9" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" s="11" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B43" s="10" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B45" s="7" t="s">
         <v>121</v>
       </c>
@@ -3125,7 +3138,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B46" s="2" t="s">
         <v>2</v>
       </c>
@@ -3142,7 +3155,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B47" s="2" t="s">
         <v>5</v>
       </c>
@@ -3159,7 +3172,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B48" s="2" t="s">
         <v>4</v>
       </c>
@@ -3176,7 +3189,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B49" s="2" t="s">
         <v>7</v>
       </c>
@@ -3193,12 +3206,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="2:7" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:7" s="11" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B52" s="10" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B54" s="7" t="s">
         <v>121</v>
       </c>
@@ -3218,7 +3231,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B55" s="2" t="s">
         <v>4</v>
       </c>
@@ -3238,27 +3251,27 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="2:7" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:7" s="11" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B58" s="10" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B60" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B61" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="2:7" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:7" s="11" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B64" s="10" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B66" s="7" t="s">
         <v>329</v>
       </c>
@@ -3266,7 +3279,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B67" s="2" t="s">
         <v>2</v>
       </c>
@@ -3274,7 +3287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B68" s="2" t="s">
         <v>4</v>
       </c>
@@ -3282,7 +3295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B69" s="2" t="s">
         <v>5</v>
       </c>
@@ -3290,7 +3303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B70" s="2" t="s">
         <v>6</v>
       </c>
@@ -3298,7 +3311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B71" s="2" t="s">
         <v>7</v>
       </c>
@@ -3306,7 +3319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B72" s="2" t="s">
         <v>52</v>
       </c>
@@ -3314,7 +3327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B73" s="2" t="s">
         <v>156</v>
       </c>
@@ -3322,12 +3335,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="2:6" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:6" s="11" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B76" s="10" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B78" s="7" t="s">
         <v>262</v>
       </c>
@@ -3344,7 +3357,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B79" s="2" t="s">
         <v>2</v>
       </c>
@@ -3361,7 +3374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3378,7 +3391,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B81" s="2" t="s">
         <v>4</v>
       </c>
@@ -3395,7 +3408,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B82" s="2" t="s">
         <v>5</v>
       </c>
@@ -3412,7 +3425,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B83" s="2" t="s">
         <v>6</v>
       </c>
@@ -3429,7 +3442,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B84" s="2" t="s">
         <v>7</v>
       </c>
@@ -3446,7 +3459,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B85" s="2" t="s">
         <v>52</v>
       </c>
@@ -3463,7 +3476,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B86" s="2" t="s">
         <v>53</v>
       </c>
@@ -3480,7 +3493,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B87" s="2" t="s">
         <v>156</v>
       </c>
@@ -3497,7 +3510,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B88" s="2" t="s">
         <v>136</v>
       </c>
@@ -3514,7 +3527,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B89" s="2" t="s">
         <v>277</v>
       </c>
@@ -3531,7 +3544,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B90" s="2" t="s">
         <v>306</v>
       </c>
@@ -3548,12 +3561,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="2:6" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:6" s="11" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B93" s="10" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B95" s="7" t="s">
         <v>274</v>
       </c>
@@ -3561,7 +3574,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B96" s="2" t="s">
         <v>5</v>
       </c>
@@ -3569,7 +3582,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B97" s="2" t="s">
         <v>6</v>
       </c>
@@ -3577,7 +3590,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B98" s="2" t="s">
         <v>7</v>
       </c>
@@ -3585,12 +3598,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="101" spans="2:9" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:9" s="11" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B101" s="10" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B103" s="7" t="s">
         <v>262</v>
       </c>
@@ -3616,7 +3629,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B104" s="2" t="s">
         <v>2</v>
       </c>
@@ -3642,7 +3655,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B105" s="2" t="s">
         <v>156</v>
       </c>
@@ -3668,12 +3681,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="108" spans="2:9" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:9" s="11" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B108" s="10" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B110" s="7" t="s">
         <v>274</v>
       </c>
@@ -3684,7 +3697,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
         <v>3</v>
       </c>
@@ -3695,7 +3708,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
         <v>7</v>
       </c>
@@ -3706,12 +3719,12 @@
         <v>313</v>
       </c>
     </row>
-    <row r="115" spans="2:7" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:7" s="11" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B115" s="10" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B117" s="7" t="s">
         <v>262</v>
       </c>
@@ -3725,7 +3738,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B118" s="2" t="s">
         <v>2</v>
       </c>
@@ -3739,7 +3752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B119" s="2" t="s">
         <v>3</v>
       </c>
@@ -3753,7 +3766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B120" s="2" t="s">
         <v>3</v>
       </c>
@@ -3767,7 +3780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B121" s="2" t="s">
         <v>3</v>
       </c>
@@ -3781,7 +3794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B122" s="2" t="s">
         <v>4</v>
       </c>
@@ -3795,12 +3808,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="2:7" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:7" s="11" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B125" s="10" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B127" s="7" t="s">
         <v>297</v>
       </c>
@@ -3820,7 +3833,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B128" s="2" t="s">
         <v>3</v>
       </c>
@@ -3840,7 +3853,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B129" s="2" t="s">
         <v>136</v>
       </c>
@@ -3860,17 +3873,17 @@
         <v>293</v>
       </c>
     </row>
-    <row r="133" spans="2:7" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:7" s="11" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B133" s="10" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B135" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B137" s="7" t="s">
         <v>297</v>
       </c>
@@ -3878,7 +3891,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B138" s="2" t="s">
         <v>2</v>
       </c>
@@ -3886,7 +3899,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B139" s="2" t="s">
         <v>5</v>
       </c>
@@ -3894,7 +3907,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B140" s="2" t="s">
         <v>6</v>
       </c>
@@ -3902,7 +3915,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B141" s="2" t="s">
         <v>7</v>
       </c>
@@ -3910,7 +3923,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B142" s="2" t="s">
         <v>53</v>
       </c>
@@ -3918,7 +3931,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B143" s="2" t="s">
         <v>156</v>
       </c>
@@ -3926,17 +3939,17 @@
         <v>194</v>
       </c>
     </row>
-    <row r="146" spans="2:4" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:4" s="11" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B146" s="10" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B148" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B150" s="7" t="s">
         <v>83</v>
       </c>
@@ -3947,7 +3960,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B151" s="2" t="s">
         <v>136</v>
       </c>
@@ -3958,17 +3971,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="2:4" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:4" s="11" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B155" s="10" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B157" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B159" s="7" t="s">
         <v>236</v>
       </c>
@@ -3976,7 +3989,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B160" s="2" t="s">
         <v>2</v>
       </c>
@@ -3984,7 +3997,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B161" s="2" t="s">
         <v>4</v>
       </c>
@@ -3992,7 +4005,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B162" s="2" t="s">
         <v>5</v>
       </c>
@@ -4000,17 +4013,17 @@
         <v>99</v>
       </c>
     </row>
-    <row r="165" spans="2:3" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:3" s="11" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B165" s="10" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B167" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B169" s="7" t="s">
         <v>274</v>
       </c>
@@ -4018,7 +4031,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B170" s="2" t="s">
         <v>7</v>
       </c>
@@ -4026,17 +4039,17 @@
         <v>166</v>
       </c>
     </row>
-    <row r="173" spans="2:3" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:3" s="11" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B173" s="10" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B175" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B177" s="7" t="s">
         <v>316</v>
       </c>
@@ -4056,7 +4069,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B178" s="2" t="s">
         <v>2</v>
       </c>
@@ -4076,7 +4089,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B179" s="2" t="s">
         <v>3</v>
       </c>
@@ -4096,7 +4109,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B180" s="2" t="s">
         <v>4</v>
       </c>
@@ -4116,7 +4129,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B181" s="2" t="s">
         <v>5</v>
       </c>
@@ -4136,7 +4149,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B182" s="2" t="s">
         <v>6</v>
       </c>
@@ -4156,7 +4169,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B183" s="2" t="s">
         <v>7</v>
       </c>
@@ -4176,7 +4189,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B184" s="2" t="s">
         <v>52</v>
       </c>
@@ -4196,7 +4209,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B185" s="2" t="s">
         <v>53</v>
       </c>
@@ -4216,7 +4229,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B186" s="2" t="s">
         <v>156</v>
       </c>
@@ -4236,7 +4249,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B187" s="2" t="s">
         <v>136</v>
       </c>
@@ -4256,7 +4269,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B188" s="2" t="s">
         <v>2</v>
       </c>
@@ -4276,7 +4289,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B189" s="2" t="s">
         <v>3</v>
       </c>
@@ -4296,7 +4309,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B190" s="2" t="s">
         <v>4</v>
       </c>
@@ -4316,7 +4329,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B191" s="2" t="s">
         <v>5</v>
       </c>
@@ -4336,7 +4349,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B192" s="2" t="s">
         <v>6</v>
       </c>
@@ -4356,7 +4369,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B193" s="2" t="s">
         <v>7</v>
       </c>
@@ -4376,7 +4389,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B194" s="2" t="s">
         <v>52</v>
       </c>
@@ -4396,7 +4409,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B195" s="2" t="s">
         <v>53</v>
       </c>
@@ -4416,7 +4429,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B196" s="2" t="s">
         <v>156</v>
       </c>
@@ -4436,7 +4449,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B197" s="2" t="s">
         <v>136</v>
       </c>
@@ -4467,21 +4480,21 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" s="4" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>vi_tri</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -4490,7 +4503,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -4499,7 +4512,7 @@
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -4521,21 +4534,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" s="4" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>trinh_do</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
@@ -4544,7 +4557,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -4553,7 +4566,7 @@
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -4562,7 +4575,7 @@
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -4571,7 +4584,7 @@
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -4593,21 +4606,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" s="4" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>bo_phan</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
@@ -4616,7 +4629,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -4625,7 +4638,7 @@
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -4634,7 +4647,7 @@
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -4643,7 +4656,7 @@
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -4667,30 +4680,30 @@
       <selection activeCell="B10" sqref="B10:L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" s="4" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>nhan_vien</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>18</v>
       </c>
@@ -4726,7 +4739,7 @@
       </c>
       <c r="N4"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -4762,7 +4775,7 @@
       </c>
       <c r="N5"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -4798,7 +4811,7 @@
       </c>
       <c r="N6"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -4834,7 +4847,7 @@
       </c>
       <c r="N7"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -4870,7 +4883,7 @@
       </c>
       <c r="N8"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -4906,7 +4919,7 @@
       </c>
       <c r="N9"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -4942,7 +4955,7 @@
       </c>
       <c r="N10"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
@@ -4978,7 +4991,7 @@
       </c>
       <c r="N11"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>53</v>
       </c>
@@ -5014,7 +5027,7 @@
       </c>
       <c r="N12"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>156</v>
       </c>
@@ -5050,7 +5063,7 @@
       </c>
       <c r="N13"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
         <v>136</v>
       </c>
@@ -5113,21 +5126,21 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="14.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" s="4" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>loai_khach</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>81</v>
       </c>
@@ -5136,7 +5149,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -5145,7 +5158,7 @@
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -5154,7 +5167,7 @@
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -5163,7 +5176,7 @@
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -5172,7 +5185,7 @@
       </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -5192,32 +5205,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:L14"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="15.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" s="4" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>khach_hang</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>83</v>
       </c>
@@ -5247,7 +5260,7 @@
       </c>
       <c r="L4"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -5277,7 +5290,7 @@
       </c>
       <c r="L5"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -5307,7 +5320,7 @@
       </c>
       <c r="L6"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -5337,7 +5350,7 @@
       </c>
       <c r="L7"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -5367,7 +5380,7 @@
       </c>
       <c r="L8"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -5397,7 +5410,7 @@
       </c>
       <c r="L9"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -5427,7 +5440,7 @@
       </c>
       <c r="L10"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
@@ -5457,7 +5470,7 @@
       </c>
       <c r="L11"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>53</v>
       </c>
@@ -5487,7 +5500,7 @@
       </c>
       <c r="L12"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>156</v>
       </c>
@@ -5517,7 +5530,7 @@
       </c>
       <c r="L13"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
         <v>136</v>
       </c>
@@ -5572,22 +5585,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" s="4" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>kieu_thue</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>110</v>
       </c>
@@ -5597,7 +5610,7 @@
       <c r="E4"/>
       <c r="F4"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -5607,7 +5620,7 @@
       <c r="E5"/>
       <c r="F5"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -5617,7 +5630,7 @@
       <c r="E6"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -5627,7 +5640,7 @@
       <c r="E7"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
